--- a/biology/Botanique/Jean_Goyard/Jean_Goyard.xlsx
+++ b/biology/Botanique/Jean_Goyard/Jean_Goyard.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jean Goyard, né le 18 avril 1881 à La Vineuse[1] et mort le 14 janvier 1946 dans le 12e arrondissement de Paris[2], est un distillateur, pionnier en Champagne. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jean Goyard, né le 18 avril 1881 à La Vineuse et mort le 14 janvier 1946 dans le 12e arrondissement de Paris, est un distillateur, pionnier en Champagne. 
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Fils de viticulteur-paysan, diplômé d'un simple certificat d'études, incité par son frère ainé, il acquiert un alambic, apprend le métier de distillateur et commence à distiller modestement en Bourgogne. En 1911, il crée une distillerie artisanale à Aÿ. Mobilisé par la guerre, femmes et vieillards parviennent à faire perdurer la petite entreprise familiale. Au retour du front (1918), Jean Goyard retrouve sa distillerie mais qu'il doit réorganiser.
 Avec une équipe de distillateurs, il parcourt la Champagne avec douze alambics (1927). Les « déchets » des vendanges sont transformés en puissantes eaux-de-vie, ratafia, rhum et cidre. Mais vient la Seconde Guerre mondiale. 
@@ -544,9 +558,11 @@
           <t>La distillerie Jean Goyard</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Depuis un siècle, la distillerie Jean Goyard élabore et affine ses eaux-de-vie et ratafia au cœur du vignoble de Champagne. Depuis ce temps-là, elle a su développer son savoir-faire et sa technicité pour proposer une multitude de coproduits[3] précieux pour l'industrie.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Depuis un siècle, la distillerie Jean Goyard élabore et affine ses eaux-de-vie et ratafia au cœur du vignoble de Champagne. Depuis ce temps-là, elle a su développer son savoir-faire et sa technicité pour proposer une multitude de coproduits précieux pour l'industrie.
 La distillerie, restée sous le même nom, est pilotée depuis 2007 par le groupe Cristal Union et par le groupe coopératif Cohesis.
 </t>
         </is>
